--- a/examples/yed_test_to_excel2.xlsx
+++ b/examples/yed_test_to_excel2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cole\GitHub\yedextended\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA114869-24F6-4A80-9272-D0F76D7EB044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{024C04FA-05EE-432B-84D8-4E2C1ACB6A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="2760" windowWidth="19965" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objects_and_Groups" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
-    <t>FORMAT -&gt; LABEL | ID (INDENTATION OF INFO MEANS BELONGING TO GROUP ABOVE.)</t>
+    <t>FORMAT -&gt; OBJECT_LABEL | OBJECT_ID (OPTIONAL TO SUPPORT DISAMBIGUATION) - NOTE: INDENTATION OF INFO ONE COLUMN DESIGNATES BELONGING TO OBJECT ABOVE.</t>
   </si>
   <si>
     <t>Ivrea</t>
@@ -56,16 +56,16 @@
     <t>n2::n1</t>
   </si>
   <si>
-    <t xml:space="preserve">FORMAT -&gt; NODE1 | NODE2 | EDGE_LABEL | EDGE_ID </t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>FORMAT -&gt; NODE1_LABEL | NODE2_LABEL | EDGE_LABEL (OPTIONAL) | EDGE_OWNER (OPTIONAL - TO ASSIGN OWNERSHIP TO SPECIFIC GROUP) - NOTE: DISAMBIGUATION SUPPORTED BY CONCATENATING LABEL WITH '##ID:##'+ID SHARED WITH OBJECT</t>
+  </si>
+  <si>
+    <t>##ID:##e0</t>
+  </si>
+  <si>
+    <t>##ID:##e1</t>
+  </si>
+  <si>
+    <t>##ID:##e2</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -463,47 +463,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
     </row>
